--- a/docs/winch_simple.xlsx
+++ b/docs/winch_simple.xlsx
@@ -632,7 +632,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,9 +854,11 @@
         <v>12</v>
       </c>
       <c r="B22" s="5">
+        <f>B8</f>
         <v>200</v>
       </c>
       <c r="C22" s="6">
+        <f>B9</f>
         <v>310</v>
       </c>
       <c r="D22" t="s">
